--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="20730" windowHeight="9495" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="20730" windowHeight="9495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigDetails" sheetId="16" r:id="rId1"/>
@@ -12,15 +12,13 @@
     <sheet name="ViewDashboard" sheetId="3" r:id="rId3"/>
     <sheet name="Menu" sheetId="2" r:id="rId4"/>
     <sheet name="Close" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId6"/>
-    <sheet name="Phn" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="77">
   <si>
     <t>ActionCode</t>
   </si>
@@ -251,36 +249,6 @@
   </si>
   <si>
     <t>PFM_ME_LNK_Logout</t>
-  </si>
-  <si>
-    <t>test$%ClientID$pw1Titlebar1</t>
-  </si>
-  <si>
-    <t>Concatenate</t>
-  </si>
-  <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>%ClientID$%XYZ$Mayuri$VaribleName</t>
-  </si>
-  <si>
-    <t>My name is mayuri$mayuri$%XYZ$VariableName</t>
-  </si>
-  <si>
-    <t>%ClientID$XYZ$%Mayuri$VaribleName</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Set application</t>
-  </si>
-  <si>
-    <t>SetApp</t>
-  </si>
-  <si>
-    <t>adb:GT-N7100</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1542,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1652,222 +1620,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="8"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
   <si>
     <t>ActionCode</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>PFM_ME_LNK_Logout</t>
+  </si>
+  <si>
+    <t>omkar</t>
   </si>
 </sst>
 </file>
@@ -1540,10 +1543,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1617,6 +1620,11 @@
         <v>com.konylabs.DigiBank</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Components.xlsx
+++ b/Components/Components.xlsx
@@ -251,7 +251,7 @@
     <t>PFM_ME_LNK_Logout</t>
   </si>
   <si>
-    <t>omkar</t>
+    <t>omkar123</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
